--- a/tobuy.xlsx
+++ b/tobuy.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\xgino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4A83E8-8DB6-45D7-A2E6-2782F3D51DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3D0A-0C91-4E75-848F-81F80FB788F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="1530" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product</t>
   </si>
@@ -49,6 +60,15 @@
   </si>
   <si>
     <t>Neo Logo board</t>
+  </si>
+  <si>
+    <t>Tesla model s</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>est price</t>
   </si>
 </sst>
 </file>
@@ -375,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" activeCellId="1" sqref="G11 E10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,44 +406,84 @@
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tobuy.xlsx
+++ b/tobuy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\xgino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beast\Documents\GitHub\xgino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3D0A-0C91-4E75-848F-81F80FB788F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C99A9-EF6B-4A2D-8ED6-7F7E950F891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1530" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>est price</t>
+  </si>
+  <si>
+    <t>drone cam build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini PC </t>
+  </si>
+  <si>
+    <t>Macbook pro</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +495,24 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tobuy.xlsx
+++ b/tobuy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beast\Documents\GitHub\xgino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C99A9-EF6B-4A2D-8ED6-7F7E950F891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF46A38-848B-B243-9DBA-9507C5E8F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="3820" windowWidth="21600" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>drone cam build</t>
   </si>
   <si>
-    <t xml:space="preserve">mini PC </t>
-  </si>
-  <si>
-    <t>Macbook pro</t>
+    <t>Macbook pro 16 inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> camera</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,16 +406,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -431,7 +431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -439,7 +439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -447,7 +447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -455,7 +455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -463,7 +463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -471,7 +471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -487,7 +487,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -495,7 +495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -503,14 +503,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
+      </c>
+      <c r="C14">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/tobuy.xlsx
+++ b/tobuy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/xgino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/PERSONAL/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF46A38-848B-B243-9DBA-9507C5E8F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC89B30-7C7D-A740-85D7-4273B730670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="3820" windowWidth="21600" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="3820" windowWidth="21600" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Product</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve"> camera</t>
+  </si>
+  <si>
+    <t>Electric Bike Scooter Funn</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -519,6 +525,14 @@
         <v>700</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
